--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="127">
   <si>
     <t>Dispon/PC</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Alvo</t>
+  </si>
+  <si>
+    <t>Empresa</t>
   </si>
   <si>
     <t>BOMBRIL</t>
@@ -764,6 +767,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:52">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -920,7 +926,7 @@
     </row>
     <row r="2" spans="1:52">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>0.03739969728</v>
@@ -1078,7 +1084,7 @@
     </row>
     <row r="3" spans="1:52">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>1.644151565</v>
@@ -1236,7 +1242,7 @@
     </row>
     <row r="4" spans="1:52">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>0.714739229</v>
@@ -1298,12 +1304,6 @@
       <c r="U4">
         <v>0.05263157895</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
       <c r="X4">
         <v>0.1084949215</v>
       </c>
@@ -1345,9 +1345,6 @@
       </c>
       <c r="AK4">
         <v>-0.576787691</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
       </c>
       <c r="AM4">
         <v>0.0289017341</v>
@@ -1394,7 +1391,7 @@
     </row>
     <row r="5" spans="1:52">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>0.621887287</v>
@@ -1420,9 +1417,6 @@
       <c r="I5">
         <v>1.548924076</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
         <v>0.2054320087</v>
       </c>
@@ -1438,18 +1432,6 @@
       <c r="O5">
         <v>4.710415535</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
       <c r="T5">
         <v>0.261598579</v>
       </c>
@@ -1533,9 +1515,6 @@
       </c>
       <c r="AU5">
         <v>1.143930166</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
       </c>
       <c r="AW5">
         <v>1.127689809</v>
@@ -1552,7 +1531,7 @@
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>1.260625103</v>
@@ -1710,7 +1689,7 @@
     </row>
     <row r="7" spans="1:52">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7">
         <v>0.120847833</v>
@@ -1868,7 +1847,7 @@
     </row>
     <row r="8" spans="1:52">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8">
         <v>1.533707865</v>
@@ -2026,7 +2005,7 @@
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9">
         <v>0.4939365036</v>
@@ -2184,7 +2163,7 @@
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <v>0.340488563</v>
@@ -2342,7 +2321,7 @@
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <v>0.3813747228</v>
@@ -2385,18 +2364,6 @@
       </c>
       <c r="O11">
         <v>8.099775785</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
       </c>
       <c r="T11">
         <v>0.1065074627</v>
@@ -2500,7 +2467,7 @@
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12">
         <v>0.1926561755</v>
@@ -2658,7 +2625,7 @@
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13">
         <v>0.7090190915</v>
@@ -2816,7 +2783,7 @@
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14">
         <v>0.7619469027</v>
@@ -2974,7 +2941,7 @@
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15">
         <v>0.1983504597</v>
@@ -3132,7 +3099,7 @@
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16">
         <v>1.164596273</v>
@@ -3290,7 +3257,7 @@
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17">
         <v>1.411924119</v>
@@ -3448,7 +3415,7 @@
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18">
         <v>0.6086956522</v>
@@ -3491,18 +3458,6 @@
       </c>
       <c r="O18">
         <v>3.096308788</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
       </c>
       <c r="T18">
         <v>0.08713469388</v>
@@ -3606,7 +3561,7 @@
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19">
         <v>0.1931818182</v>
@@ -3649,18 +3604,6 @@
       </c>
       <c r="O19">
         <v>-6.023622047</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
       </c>
       <c r="T19">
         <v>-0.08552188551999999</v>
@@ -3764,7 +3707,7 @@
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20">
         <v>0.9821731749</v>
@@ -3808,18 +3751,6 @@
       <c r="O20">
         <v>-3.208029197</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
       <c r="T20">
         <v>-0.1573808156</v>
       </c>
@@ -3854,7 +3785,7 @@
         <v>0.02982049797</v>
       </c>
       <c r="AE20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF20">
         <v>1.650236967</v>
@@ -3908,7 +3839,7 @@
         <v>0.1724041422</v>
       </c>
       <c r="AW20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AX20">
         <v>0.201511335</v>
@@ -3922,7 +3853,7 @@
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21">
         <v>0.1648441135</v>
@@ -4080,7 +4011,7 @@
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22">
         <v>0.6834042553</v>
@@ -4238,7 +4169,7 @@
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B23">
         <v>1.910714286</v>
@@ -4264,9 +4195,6 @@
       <c r="I23">
         <v>50.90909091</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
         <v>0.3728531856</v>
       </c>
@@ -4282,18 +4210,6 @@
       <c r="O23">
         <v>-0.04543330391</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
       <c r="T23">
         <v>-1.058914089</v>
       </c>
@@ -4321,12 +4237,6 @@
       <c r="AB23">
         <v>-1.538075601</v>
       </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
       <c r="AE23">
         <v>0.188365651</v>
       </c>
@@ -4377,9 +4287,6 @@
       </c>
       <c r="AU23">
         <v>152.9545455</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
       </c>
       <c r="AW23">
         <v>77.27272727</v>
@@ -4396,7 +4303,7 @@
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24">
         <v>501.0206186</v>
@@ -4416,9 +4323,6 @@
       <c r="H24">
         <v>6.298948348E-05</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
         <v>0.03250049547</v>
       </c>
@@ -4428,9 +4332,6 @@
       <c r="M24">
         <v>0.03243750599</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
       <c r="P24">
         <v>0.001252287175</v>
       </c>
@@ -4467,12 +4368,6 @@
       <c r="AB24">
         <v>0.1479649933</v>
       </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
       <c r="AE24">
         <v>0.03151565165</v>
       </c>
@@ -4481,18 +4376,6 @@
       </c>
       <c r="AG24">
         <v>0.9999370104999999</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>0</v>
-      </c>
-      <c r="AY24">
-        <v>0</v>
       </c>
       <c r="AZ24">
         <v>1</v>
@@ -4500,7 +4383,7 @@
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25">
         <v>0.6030559176</v>
@@ -4658,7 +4541,7 @@
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26">
         <v>0.0007345384821999999</v>
@@ -4816,7 +4699,7 @@
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27">
         <v>0.008861553215</v>
@@ -4974,7 +4857,7 @@
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B28">
         <v>0.5691044761</v>
@@ -5132,7 +5015,7 @@
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29">
         <v>10.60467706</v>
@@ -5173,9 +5056,6 @@
       <c r="N29">
         <v>2.185377461</v>
       </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
       <c r="P29">
         <v>0.0276647681</v>
       </c>
@@ -5215,12 +5095,6 @@
       <c r="AB29">
         <v>0.05498698267</v>
       </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
       <c r="AE29">
         <v>0.4344700082</v>
       </c>
@@ -5229,12 +5103,6 @@
       </c>
       <c r="AG29">
         <v>0.915283484</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
       </c>
       <c r="AJ29">
         <v>-0.3210036773</v>
@@ -5290,7 +5158,7 @@
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B30">
         <v>0.8129685156999999</v>
@@ -5448,7 +5316,7 @@
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B31">
         <v>0.6078740157</v>
@@ -5491,18 +5359,6 @@
       </c>
       <c r="O31">
         <v>0.5847404628</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
       </c>
       <c r="T31">
         <v>0.6138195777</v>
@@ -5606,7 +5462,7 @@
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ32">
         <v>0</v>
@@ -5614,7 +5470,7 @@
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33">
         <v>0.7506132461</v>
@@ -5772,7 +5628,7 @@
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B34">
         <v>0.1590909091</v>
@@ -5930,7 +5786,7 @@
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B35">
         <v>1.443673251</v>
@@ -6088,7 +5944,7 @@
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B36">
         <v>1.205572085</v>
@@ -6246,7 +6102,7 @@
     </row>
     <row r="37" spans="1:52">
       <c r="A37" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37">
         <v>0.2278542119</v>
@@ -6404,7 +6260,7 @@
     </row>
     <row r="38" spans="1:52">
       <c r="A38" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B38">
         <v>0.0147580036</v>
@@ -6562,7 +6418,7 @@
     </row>
     <row r="39" spans="1:52">
       <c r="A39" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B39">
         <v>8.556521739000001</v>
@@ -6603,21 +6459,6 @@
       <c r="N39">
         <v>1.098569157</v>
       </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
       <c r="T39">
         <v>-0.008493518105</v>
       </c>
@@ -6645,12 +6486,6 @@
       <c r="AB39">
         <v>0.1189092535</v>
       </c>
-      <c r="AC39">
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
       <c r="AE39">
         <v>0.5908904391000001</v>
       </c>
@@ -6659,12 +6494,6 @@
       </c>
       <c r="AG39">
         <v>0.9179318835</v>
-      </c>
-      <c r="AH39">
-        <v>0</v>
-      </c>
-      <c r="AI39">
-        <v>0</v>
       </c>
       <c r="AJ39">
         <v>-0.01510333863</v>
@@ -6720,7 +6549,7 @@
     </row>
     <row r="40" spans="1:52">
       <c r="A40" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B40">
         <v>0.7308825134</v>
@@ -6878,7 +6707,7 @@
     </row>
     <row r="41" spans="1:52">
       <c r="A41" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B41">
         <v>0.4822391289</v>
@@ -7036,7 +6865,7 @@
     </row>
     <row r="42" spans="1:52">
       <c r="A42" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B42">
         <v>4.424237079</v>
@@ -7194,7 +7023,7 @@
     </row>
     <row r="43" spans="1:52">
       <c r="A43" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B43">
         <v>0.04345936777</v>
@@ -7352,7 +7181,7 @@
     </row>
     <row r="44" spans="1:52">
       <c r="A44" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B44">
         <v>0.04676063154</v>
@@ -7510,7 +7339,7 @@
     </row>
     <row r="45" spans="1:52">
       <c r="A45" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B45">
         <v>0.1472282604</v>
@@ -7668,7 +7497,7 @@
     </row>
     <row r="46" spans="1:52">
       <c r="A46" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B46">
         <v>0.008406745405000001</v>
@@ -7826,7 +7655,7 @@
     </row>
     <row r="47" spans="1:52">
       <c r="A47" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B47">
         <v>0.07448938726</v>
@@ -7984,7 +7813,7 @@
     </row>
     <row r="48" spans="1:52">
       <c r="A48" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B48">
         <v>0.0008884565499</v>
@@ -8142,7 +7971,7 @@
     </row>
     <row r="49" spans="1:52">
       <c r="A49" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B49">
         <v>0.000720136826</v>
@@ -8276,9 +8105,6 @@
       <c r="AS49">
         <v>0.2372735562</v>
       </c>
-      <c r="AT49">
-        <v>0</v>
-      </c>
       <c r="AU49">
         <v>1.049848024</v>
       </c>
@@ -8287,9 +8113,6 @@
       </c>
       <c r="AW49">
         <v>-0.003039513678</v>
-      </c>
-      <c r="AX49">
-        <v>0</v>
       </c>
       <c r="AY49">
         <v>0.1016090676</v>
@@ -8300,7 +8123,7 @@
     </row>
     <row r="50" spans="1:52">
       <c r="A50" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B50">
         <v>0.1131398249</v>
@@ -8458,7 +8281,7 @@
     </row>
     <row r="51" spans="1:52">
       <c r="A51" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B51">
         <v>0.5586828309</v>
@@ -8616,7 +8439,7 @@
     </row>
     <row r="52" spans="1:52">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B52">
         <v>0.007415254237</v>
@@ -8636,9 +8459,6 @@
       <c r="H52">
         <v>0.0253028841</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
       <c r="K52">
         <v>0.02136271041</v>
       </c>
@@ -8648,9 +8468,6 @@
       <c r="M52">
         <v>-0.003940173689</v>
       </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
       <c r="P52">
         <v>-0.1897533207</v>
       </c>
@@ -8687,12 +8504,6 @@
       <c r="AB52">
         <v>-0.01424002103</v>
       </c>
-      <c r="AC52">
-        <v>0</v>
-      </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
       <c r="AE52">
         <v>-0.02511525678</v>
       </c>
@@ -8701,18 +8512,6 @@
       </c>
       <c r="AG52">
         <v>0.6117454701</v>
-      </c>
-      <c r="AH52">
-        <v>0</v>
-      </c>
-      <c r="AI52">
-        <v>0</v>
-      </c>
-      <c r="AR52">
-        <v>0</v>
-      </c>
-      <c r="AY52">
-        <v>0</v>
       </c>
       <c r="AZ52">
         <v>1</v>
@@ -8720,7 +8519,7 @@
     </row>
     <row r="53" spans="1:52">
       <c r="A53" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B53">
         <v>0.0002336706412</v>
@@ -8878,7 +8677,7 @@
     </row>
     <row r="54" spans="1:52">
       <c r="A54" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B54">
         <v>0.001206395943</v>
@@ -9036,7 +8835,7 @@
     </row>
     <row r="55" spans="1:52">
       <c r="A55" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B55">
         <v>0.00201281725</v>
@@ -9194,7 +8993,7 @@
     </row>
     <row r="56" spans="1:52">
       <c r="A56" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B56">
         <v>0.1165919283</v>
@@ -9214,9 +9013,6 @@
       <c r="H56">
         <v>0.219488189</v>
       </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
       <c r="K56">
         <v>0.06660104987</v>
       </c>
@@ -9300,9 +9096,6 @@
       </c>
       <c r="AR56">
         <v>-0.0004437335958</v>
-      </c>
-      <c r="AY56">
-        <v>0</v>
       </c>
       <c r="AZ56">
         <v>1</v>
@@ -9310,7 +9103,7 @@
     </row>
     <row r="57" spans="1:52">
       <c r="A57" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B57">
         <v>0.03202725724</v>
@@ -9468,7 +9261,7 @@
     </row>
     <row r="58" spans="1:52">
       <c r="A58" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B58">
         <v>0.0006271022177</v>
@@ -9494,9 +9287,6 @@
       <c r="I58">
         <v>10.16928518</v>
       </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
       <c r="K58">
         <v>0.04704932964</v>
       </c>
@@ -9509,9 +9299,6 @@
       <c r="N58">
         <v>2.438402226</v>
       </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
       <c r="P58">
         <v>0.01495252715</v>
       </c>
@@ -9551,12 +9338,6 @@
       <c r="AB58">
         <v>-0.0001661050846</v>
       </c>
-      <c r="AC58">
-        <v>0</v>
-      </c>
-      <c r="AD58">
-        <v>0</v>
-      </c>
       <c r="AE58">
         <v>-0.003180324393</v>
       </c>
@@ -9566,12 +9347,6 @@
       <c r="AG58">
         <v>0.913038681</v>
       </c>
-      <c r="AH58">
-        <v>0</v>
-      </c>
-      <c r="AI58">
-        <v>0</v>
-      </c>
       <c r="AJ58">
         <v>0.9394979419</v>
       </c>
@@ -9607,9 +9382,6 @@
       </c>
       <c r="AU58">
         <v>12.6076874</v>
-      </c>
-      <c r="AV58">
-        <v>0</v>
       </c>
       <c r="AW58">
         <v>-0.8522233173</v>
@@ -9626,7 +9398,7 @@
     </row>
     <row r="59" spans="1:52">
       <c r="A59" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B59">
         <v>0.004594313454</v>
@@ -9784,7 +9556,7 @@
     </row>
     <row r="60" spans="1:52">
       <c r="A60" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B60">
         <v>0.003508767929</v>
@@ -9942,7 +9714,7 @@
     </row>
     <row r="61" spans="1:52">
       <c r="A61" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B61">
         <v>0.0008873040652</v>
@@ -9968,9 +9740,6 @@
       <c r="I61">
         <v>-3743.698962</v>
       </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
       <c r="K61">
         <v>0.01718787887</v>
       </c>
@@ -10081,9 +9850,6 @@
       </c>
       <c r="AU61">
         <v>-55.67820069</v>
-      </c>
-      <c r="AV61">
-        <v>0</v>
       </c>
       <c r="AW61">
         <v>-13.35294118</v>
@@ -10100,7 +9866,7 @@
     </row>
     <row r="62" spans="1:52">
       <c r="A62" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B62">
         <v>0.0224394127</v>
@@ -10258,7 +10024,7 @@
     </row>
     <row r="63" spans="1:52">
       <c r="A63" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B63">
         <v>0.1664999548</v>
@@ -10416,7 +10182,7 @@
     </row>
     <row r="64" spans="1:52">
       <c r="A64" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B64">
         <v>0.06479193702</v>
@@ -10457,9 +10223,6 @@
       <c r="N64">
         <v>-3791.719626</v>
       </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
       <c r="P64">
         <v>0.07361460522</v>
       </c>
@@ -10499,12 +10262,6 @@
       <c r="AB64">
         <v>0.276480419</v>
       </c>
-      <c r="AC64">
-        <v>0</v>
-      </c>
-      <c r="AD64">
-        <v>0</v>
-      </c>
       <c r="AE64">
         <v>0.02891214829</v>
       </c>
@@ -10513,12 +10270,6 @@
       </c>
       <c r="AG64">
         <v>0.8239138781999999</v>
-      </c>
-      <c r="AH64">
-        <v>0</v>
-      </c>
-      <c r="AI64">
-        <v>0</v>
       </c>
       <c r="AJ64">
         <v>5678.659813</v>
@@ -10574,7 +10325,7 @@
     </row>
     <row r="65" spans="1:52">
       <c r="A65" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B65">
         <v>0.5813233377</v>
@@ -10732,7 +10483,7 @@
     </row>
     <row r="66" spans="1:52">
       <c r="A66" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AZ66">
         <v>0</v>
@@ -10740,7 +10491,7 @@
     </row>
     <row r="67" spans="1:52">
       <c r="A67" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B67">
         <v>0.1647894632</v>
@@ -10898,7 +10649,7 @@
     </row>
     <row r="68" spans="1:52">
       <c r="A68" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B68">
         <v>101.8167539</v>
@@ -10918,9 +10669,6 @@
       <c r="H68">
         <v>1.316753318E-05</v>
       </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
       <c r="K68">
         <v>0.02712139559</v>
       </c>
@@ -10930,9 +10678,6 @@
       <c r="M68">
         <v>0.02710822806</v>
       </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
       <c r="P68">
         <v>-0.009720662372</v>
       </c>
@@ -10969,12 +10714,6 @@
       <c r="AB68">
         <v>-0.3339301543</v>
       </c>
-      <c r="AC68">
-        <v>0</v>
-      </c>
-      <c r="AD68">
-        <v>0</v>
-      </c>
       <c r="AE68">
         <v>0.001327507952</v>
       </c>
@@ -10983,18 +10722,6 @@
       </c>
       <c r="AG68">
         <v>0.859428345</v>
-      </c>
-      <c r="AH68">
-        <v>0</v>
-      </c>
-      <c r="AI68">
-        <v>0</v>
-      </c>
-      <c r="AR68">
-        <v>0</v>
-      </c>
-      <c r="AY68">
-        <v>0</v>
       </c>
       <c r="AZ68">
         <v>0</v>
@@ -11002,7 +10729,7 @@
     </row>
     <row r="69" spans="1:52">
       <c r="A69" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B69">
         <v>0.02077503362</v>
@@ -11160,7 +10887,7 @@
     </row>
     <row r="70" spans="1:52">
       <c r="A70" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B70">
         <v>0.1233165829</v>
@@ -11318,7 +11045,7 @@
     </row>
     <row r="71" spans="1:52">
       <c r="A71" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B71">
         <v>0.3424666537</v>
@@ -11476,7 +11203,7 @@
     </row>
     <row r="72" spans="1:52">
       <c r="A72" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B72">
         <v>0.05786926688</v>
@@ -11517,9 +11244,6 @@
       <c r="N72">
         <v>1.08979223</v>
       </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
       <c r="P72">
         <v>0.03815118073</v>
       </c>
@@ -11559,12 +11283,6 @@
       <c r="AB72">
         <v>0.7045355535</v>
       </c>
-      <c r="AC72">
-        <v>0</v>
-      </c>
-      <c r="AD72">
-        <v>0</v>
-      </c>
       <c r="AE72">
         <v>0.7564056313999999</v>
       </c>
@@ -11573,12 +11291,6 @@
       </c>
       <c r="AG72">
         <v>0.6521207803</v>
-      </c>
-      <c r="AH72">
-        <v>0</v>
-      </c>
-      <c r="AI72">
-        <v>0</v>
       </c>
       <c r="AJ72">
         <v>0.5077557911</v>
@@ -11634,7 +11346,7 @@
     </row>
     <row r="73" spans="1:52">
       <c r="A73" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B73">
         <v>0.1095179088</v>
@@ -11660,9 +11372,6 @@
       <c r="I73">
         <v>16.07200012</v>
       </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
       <c r="K73">
         <v>0.07677167149</v>
       </c>
@@ -11717,12 +11426,6 @@
       <c r="AB73">
         <v>0.0002357755567</v>
       </c>
-      <c r="AC73">
-        <v>0</v>
-      </c>
-      <c r="AD73">
-        <v>0</v>
-      </c>
       <c r="AE73">
         <v>0.06557941219000001</v>
       </c>
@@ -11770,9 +11473,6 @@
       </c>
       <c r="AU73">
         <v>10.06786642</v>
-      </c>
-      <c r="AV73">
-        <v>0</v>
       </c>
       <c r="AW73">
         <v>8.600109248000001</v>
@@ -11801,6 +11501,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:52">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11957,7 +11660,7 @@
     </row>
     <row r="2" spans="1:52">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>0.002932877298</v>
@@ -12115,7 +11818,7 @@
     </row>
     <row r="3" spans="1:52">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>0.5331705332</v>
@@ -12273,7 +11976,7 @@
     </row>
     <row r="4" spans="1:52">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>1.092908828</v>
@@ -12431,7 +12134,7 @@
     </row>
     <row r="5" spans="1:52">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>1.338709677</v>
@@ -12457,9 +12160,6 @@
       <c r="I5">
         <v>0.406770765</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
         <v>0.2460839955</v>
       </c>
@@ -12475,18 +12175,6 @@
       <c r="O5">
         <v>2.191036797</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
       <c r="T5">
         <v>0.280430622</v>
       </c>
@@ -12570,9 +12258,6 @@
       </c>
       <c r="AU5">
         <v>1.422385514</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
       </c>
       <c r="AW5">
         <v>0.6797008267</v>
@@ -12589,7 +12274,7 @@
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>1.315069841</v>
@@ -12747,7 +12432,7 @@
     </row>
     <row r="7" spans="1:52">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7">
         <v>0.492338441</v>
@@ -12905,7 +12590,7 @@
     </row>
     <row r="8" spans="1:52">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8">
         <v>1.424448217</v>
@@ -13063,7 +12748,7 @@
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9">
         <v>0.4837222702</v>
@@ -13221,7 +12906,7 @@
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <v>0.3701690398</v>
@@ -13379,7 +13064,7 @@
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <v>0.2213333333</v>
@@ -13422,18 +13107,6 @@
       </c>
       <c r="O11">
         <v>14.41558442</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
       </c>
       <c r="T11">
         <v>0.06062992126</v>
@@ -13537,7 +13210,7 @@
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12">
         <v>0.01463414634</v>
@@ -13695,7 +13368,7 @@
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13">
         <v>0.3133004926</v>
@@ -13853,7 +13526,7 @@
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14">
         <v>0.3489583333</v>
@@ -14011,7 +13684,7 @@
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15">
         <v>0.2145675266</v>
@@ -14169,7 +13842,7 @@
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16">
         <v>1.149126371</v>
@@ -14327,7 +14000,7 @@
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17">
         <v>1.124443863</v>
@@ -14485,7 +14158,7 @@
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18">
         <v>0.9096385541999999</v>
@@ -14528,18 +14201,6 @@
       </c>
       <c r="O18">
         <v>-6.483027268</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
       </c>
       <c r="T18">
         <v>-0.02594009383</v>
@@ -14643,7 +14304,7 @@
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19">
         <v>0.1751227496</v>
@@ -14686,18 +14347,6 @@
       </c>
       <c r="O19">
         <v>-0.4624425141</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
       </c>
       <c r="T19">
         <v>-1.812037037</v>
@@ -14801,7 +14450,7 @@
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20">
         <v>1.120044053</v>
@@ -14844,18 +14493,6 @@
       </c>
       <c r="O20">
         <v>1.497571506</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
       </c>
       <c r="T20">
         <v>0.2336696091</v>
@@ -14959,7 +14596,7 @@
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21">
         <v>0.3184556868</v>
@@ -15117,7 +14754,7 @@
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22">
         <v>0.4807864164</v>
@@ -15275,7 +14912,7 @@
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B23">
         <v>5.536585366</v>
@@ -15301,9 +14938,6 @@
       <c r="I23">
         <v>24.47761194</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
         <v>0.2309680451</v>
       </c>
@@ -15319,18 +14953,6 @@
       <c r="O23">
         <v>-0.01355503344</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
       <c r="T23">
         <v>-0.06048647171</v>
       </c>
@@ -15414,9 +15036,6 @@
       </c>
       <c r="AU23">
         <v>146.7164179</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
       </c>
       <c r="AW23">
         <v>115.5223881</v>
@@ -15433,7 +15052,7 @@
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24">
         <v>27.56075553</v>
@@ -15453,9 +15072,6 @@
       <c r="H24">
         <v>0.001882420296</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
         <v>0.05958351677</v>
       </c>
@@ -15465,9 +15081,6 @@
       <c r="M24">
         <v>0.05770109648</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
       <c r="P24">
         <v>0.0004325098939</v>
       </c>
@@ -15504,12 +15117,6 @@
       <c r="AB24">
         <v>0.05686375724</v>
       </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
       <c r="AE24">
         <v>0.05011083452</v>
       </c>
@@ -15518,18 +15125,6 @@
       </c>
       <c r="AG24">
         <v>0.9981175797</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>0</v>
-      </c>
-      <c r="AY24">
-        <v>0</v>
       </c>
       <c r="AZ24">
         <v>1</v>
@@ -15537,7 +15132,7 @@
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25">
         <v>0.5231364044</v>
@@ -15695,7 +15290,7 @@
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26">
         <v>0.0006560142449</v>
@@ -15853,7 +15448,7 @@
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27">
         <v>0.01804307878</v>
@@ -16011,7 +15606,7 @@
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B28">
         <v>0.5073472755</v>
@@ -16169,7 +15764,7 @@
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29">
         <v>2.915254237</v>
@@ -16327,7 +15922,7 @@
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B30">
         <v>1.229912875</v>
@@ -16485,7 +16080,7 @@
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B31">
         <v>0.51901566</v>
@@ -16528,18 +16123,6 @@
       </c>
       <c r="O31">
         <v>0.5654008439</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
       </c>
       <c r="T31">
         <v>0.5435779817</v>
@@ -16643,7 +16226,7 @@
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ32">
         <v>0</v>
@@ -16651,7 +16234,7 @@
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33">
         <v>0.7646822204</v>
@@ -16809,7 +16392,7 @@
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B34">
         <v>0.07762557078</v>
@@ -16967,7 +16550,7 @@
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B35">
         <v>0.6443498452</v>
@@ -17125,7 +16708,7 @@
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B36">
         <v>0.6306508496</v>
@@ -17283,7 +16866,7 @@
     </row>
     <row r="37" spans="1:52">
       <c r="A37" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37">
         <v>0.2583088954</v>
@@ -17441,7 +17024,7 @@
     </row>
     <row r="38" spans="1:52">
       <c r="A38" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B38">
         <v>0.04765734969</v>
@@ -17484,18 +17067,6 @@
       </c>
       <c r="O38">
         <v>17.47603486</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
       </c>
       <c r="T38">
         <v>-0.3866891323</v>
@@ -17599,7 +17170,7 @@
     </row>
     <row r="39" spans="1:52">
       <c r="A39" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B39">
         <v>8.947712418</v>
@@ -17640,9 +17211,6 @@
       <c r="N39">
         <v>1.152413793</v>
       </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
       <c r="P39">
         <v>0.0803930326</v>
       </c>
@@ -17682,12 +17250,6 @@
       <c r="AB39">
         <v>0.1448516579</v>
       </c>
-      <c r="AC39">
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
       <c r="AE39">
         <v>0.6847484277</v>
       </c>
@@ -17696,12 +17258,6 @@
       </c>
       <c r="AG39">
         <v>0.9009433962</v>
-      </c>
-      <c r="AH39">
-        <v>0</v>
-      </c>
-      <c r="AI39">
-        <v>0</v>
       </c>
       <c r="AJ39">
         <v>0.3191724138</v>
@@ -17757,7 +17313,7 @@
     </row>
     <row r="40" spans="1:52">
       <c r="A40" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B40">
         <v>0.5428986409</v>
@@ -17915,7 +17471,7 @@
     </row>
     <row r="41" spans="1:52">
       <c r="A41" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B41">
         <v>0.511247482</v>
@@ -18073,7 +17629,7 @@
     </row>
     <row r="42" spans="1:52">
       <c r="A42" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B42">
         <v>6.161572052</v>
@@ -18231,7 +17787,7 @@
     </row>
     <row r="43" spans="1:52">
       <c r="A43" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B43">
         <v>0.09318400099</v>
@@ -18389,7 +17945,7 @@
     </row>
     <row r="44" spans="1:52">
       <c r="A44" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B44">
         <v>0.03052424787</v>
@@ -18547,7 +18103,7 @@
     </row>
     <row r="45" spans="1:52">
       <c r="A45" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B45">
         <v>0.1113897064</v>
@@ -18705,7 +18261,7 @@
     </row>
     <row r="46" spans="1:52">
       <c r="A46" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B46">
         <v>0.02521406496</v>
@@ -18863,7 +18419,7 @@
     </row>
     <row r="47" spans="1:52">
       <c r="A47" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B47">
         <v>0.0946817083</v>
@@ -18906,18 +18462,6 @@
       </c>
       <c r="O47">
         <v>-43.20189274</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
       </c>
       <c r="T47">
         <v>-0.03489268024</v>
@@ -19021,7 +18565,7 @@
     </row>
     <row r="48" spans="1:52">
       <c r="A48" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B48">
         <v>0.001237989125</v>
@@ -19179,7 +18723,7 @@
     </row>
     <row r="49" spans="1:52">
       <c r="A49" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B49">
         <v>0.006783836772</v>
@@ -19205,9 +18749,6 @@
       <c r="I49">
         <v>5.535631963</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
       <c r="K49">
         <v>0.9870135247</v>
       </c>
@@ -19313,14 +18854,8 @@
       <c r="AS49">
         <v>0.4995305897</v>
       </c>
-      <c r="AT49">
-        <v>0</v>
-      </c>
       <c r="AU49">
         <v>6.868901268</v>
-      </c>
-      <c r="AV49">
-        <v>0</v>
       </c>
       <c r="AW49">
         <v>0.06924702267000001</v>
@@ -19337,7 +18872,7 @@
     </row>
     <row r="50" spans="1:52">
       <c r="A50" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B50">
         <v>0.05695180367</v>
@@ -19495,7 +19030,7 @@
     </row>
     <row r="51" spans="1:52">
       <c r="A51" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B51">
         <v>1.528229382</v>
@@ -19653,7 +19188,7 @@
     </row>
     <row r="52" spans="1:52">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B52">
         <v>6.93639576</v>
@@ -19673,9 +19208,6 @@
       <c r="H52">
         <v>0.009011877846000001</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
       <c r="K52">
         <v>0.08416393338</v>
       </c>
@@ -19685,9 +19217,6 @@
       <c r="M52">
         <v>0.07515205554</v>
       </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
       <c r="P52">
         <v>-0.5646794151</v>
       </c>
@@ -19724,12 +19253,6 @@
       <c r="AB52">
         <v>-0.07676689131</v>
       </c>
-      <c r="AC52">
-        <v>0</v>
-      </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
       <c r="AE52">
         <v>0.05349807343</v>
       </c>
@@ -19738,18 +19261,6 @@
       </c>
       <c r="AG52">
         <v>0.7371270261</v>
-      </c>
-      <c r="AH52">
-        <v>0</v>
-      </c>
-      <c r="AI52">
-        <v>0</v>
-      </c>
-      <c r="AR52">
-        <v>0</v>
-      </c>
-      <c r="AY52">
-        <v>0</v>
       </c>
       <c r="AZ52">
         <v>1</v>
@@ -19757,7 +19268,7 @@
     </row>
     <row r="53" spans="1:52">
       <c r="A53" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B53">
         <v>0.006030370728</v>
@@ -19915,7 +19426,7 @@
     </row>
     <row r="54" spans="1:52">
       <c r="A54" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B54">
         <v>0.001240843774</v>
@@ -20073,7 +19584,7 @@
     </row>
     <row r="55" spans="1:52">
       <c r="A55" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B55">
         <v>0.007352434345</v>
@@ -20231,7 +19742,7 @@
     </row>
     <row r="56" spans="1:52">
       <c r="A56" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B56">
         <v>0.06990881459000001</v>
@@ -20251,9 +19762,6 @@
       <c r="H56">
         <v>0.09187377827</v>
       </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
       <c r="K56">
         <v>0.03518570232</v>
       </c>
@@ -20266,15 +19774,6 @@
       <c r="O56">
         <v>-154.4827586</v>
       </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
       <c r="T56">
         <v>-0.008834729627</v>
       </c>
@@ -20322,12 +19821,6 @@
       </c>
       <c r="AI56">
         <v>0.5004188774</v>
-      </c>
-      <c r="AR56">
-        <v>0</v>
-      </c>
-      <c r="AY56">
-        <v>0</v>
       </c>
       <c r="AZ56">
         <v>1</v>
@@ -20335,7 +19828,7 @@
     </row>
     <row r="57" spans="1:52">
       <c r="A57" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B57">
         <v>0.01981426225</v>
@@ -20493,7 +19986,7 @@
     </row>
     <row r="58" spans="1:52">
       <c r="A58" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B58">
         <v>0.01200489371</v>
@@ -20519,9 +20012,6 @@
       <c r="I58">
         <v>7.526473297</v>
       </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
       <c r="K58">
         <v>0.01595052901</v>
       </c>
@@ -20632,9 +20122,6 @@
       </c>
       <c r="AU58">
         <v>4.750230203</v>
-      </c>
-      <c r="AV58">
-        <v>0</v>
       </c>
       <c r="AW58">
         <v>-1.070441989</v>
@@ -20651,7 +20138,7 @@
     </row>
     <row r="59" spans="1:52">
       <c r="A59" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B59">
         <v>0.05888739467</v>
@@ -20809,7 +20296,7 @@
     </row>
     <row r="60" spans="1:52">
       <c r="A60" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B60">
         <v>0.0005172029036999999</v>
@@ -20967,7 +20454,7 @@
     </row>
     <row r="61" spans="1:52">
       <c r="A61" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B61">
         <v>0.009255259916</v>
@@ -21125,7 +20612,7 @@
     </row>
     <row r="62" spans="1:52">
       <c r="A62" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B62">
         <v>0.03446296578</v>
@@ -21283,7 +20770,7 @@
     </row>
     <row r="63" spans="1:52">
       <c r="A63" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B63">
         <v>0.3354967402</v>
@@ -21441,7 +20928,7 @@
     </row>
     <row r="64" spans="1:52">
       <c r="A64" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B64">
         <v>0.2290860509</v>
@@ -21482,9 +20969,6 @@
       <c r="N64">
         <v>1302.862928</v>
       </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
       <c r="P64">
         <v>0.00907198614</v>
       </c>
@@ -21524,12 +21008,6 @@
       <c r="AB64">
         <v>0.2532999345</v>
       </c>
-      <c r="AC64">
-        <v>0</v>
-      </c>
-      <c r="AD64">
-        <v>0</v>
-      </c>
       <c r="AE64">
         <v>0.09880744523</v>
       </c>
@@ -21538,12 +21016,6 @@
       </c>
       <c r="AG64">
         <v>0.8944024219</v>
-      </c>
-      <c r="AH64">
-        <v>0</v>
-      </c>
-      <c r="AI64">
-        <v>0</v>
       </c>
       <c r="AJ64">
         <v>3452.837383</v>
@@ -21599,7 +21071,7 @@
     </row>
     <row r="65" spans="1:52">
       <c r="A65" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B65">
         <v>0.188878535</v>
@@ -21757,7 +21229,7 @@
     </row>
     <row r="66" spans="1:52">
       <c r="A66" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AZ66">
         <v>0</v>
@@ -21765,7 +21237,7 @@
     </row>
     <row r="67" spans="1:52">
       <c r="A67" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B67">
         <v>0.1034324628</v>
@@ -21923,7 +21395,7 @@
     </row>
     <row r="68" spans="1:52">
       <c r="A68" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B68">
         <v>0.008423295864000001</v>
@@ -21943,9 +21415,6 @@
       <c r="H68">
         <v>0.1433511277</v>
       </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
       <c r="K68">
         <v>0.05794720127</v>
       </c>
@@ -21955,9 +21424,6 @@
       <c r="M68">
         <v>-0.08540392643</v>
       </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
       <c r="P68">
         <v>-0.2746900491</v>
       </c>
@@ -21994,12 +21460,6 @@
       <c r="AB68">
         <v>-0.01082917626</v>
       </c>
-      <c r="AC68">
-        <v>0</v>
-      </c>
-      <c r="AD68">
-        <v>0</v>
-      </c>
       <c r="AE68">
         <v>-0.0005566087289</v>
       </c>
@@ -22008,18 +21468,6 @@
       </c>
       <c r="AG68">
         <v>0.8566488723</v>
-      </c>
-      <c r="AH68">
-        <v>0</v>
-      </c>
-      <c r="AI68">
-        <v>0</v>
-      </c>
-      <c r="AR68">
-        <v>0</v>
-      </c>
-      <c r="AY68">
-        <v>0</v>
       </c>
       <c r="AZ68">
         <v>0</v>
@@ -22027,7 +21475,7 @@
     </row>
     <row r="69" spans="1:52">
       <c r="A69" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B69">
         <v>0.02347701385</v>
@@ -22185,7 +21633,7 @@
     </row>
     <row r="70" spans="1:52">
       <c r="A70" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B70">
         <v>0.4282552083</v>
@@ -22343,7 +21791,7 @@
     </row>
     <row r="71" spans="1:52">
       <c r="A71" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B71">
         <v>0.5913118924</v>
@@ -22501,7 +21949,7 @@
     </row>
     <row r="72" spans="1:52">
       <c r="A72" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B72">
         <v>0.2614639855</v>
@@ -22542,9 +21990,6 @@
       <c r="N72">
         <v>0.2972982007</v>
       </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
       <c r="P72">
         <v>0.4939390073</v>
       </c>
@@ -22584,12 +22029,6 @@
       <c r="AB72">
         <v>0.1249342221</v>
       </c>
-      <c r="AC72">
-        <v>0</v>
-      </c>
-      <c r="AD72">
-        <v>0</v>
-      </c>
       <c r="AE72">
         <v>0.1834646684</v>
       </c>
@@ -22598,12 +22037,6 @@
       </c>
       <c r="AG72">
         <v>0.7344598802</v>
-      </c>
-      <c r="AH72">
-        <v>0</v>
-      </c>
-      <c r="AI72">
-        <v>0</v>
       </c>
       <c r="AJ72">
         <v>0.05792212133</v>
@@ -22659,7 +22092,7 @@
     </row>
     <row r="73" spans="1:52">
       <c r="A73" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B73">
         <v>0.3758597419</v>
@@ -22685,9 +22118,6 @@
       <c r="I73">
         <v>4.814604529</v>
       </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
       <c r="K73">
         <v>0.05750397572</v>
       </c>
@@ -22795,9 +22225,6 @@
       </c>
       <c r="AU73">
         <v>7.183836561</v>
-      </c>
-      <c r="AV73">
-        <v>0</v>
       </c>
       <c r="AW73">
         <v>6.673580571</v>
@@ -22826,6 +22253,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:52">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22982,7 +22412,7 @@
     </row>
     <row r="2" spans="1:52">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>0.006013846351</v>
@@ -23140,7 +22570,7 @@
     </row>
     <row r="3" spans="1:52">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>0.619205298</v>
@@ -23183,18 +22613,6 @@
       </c>
       <c r="O3">
         <v>24.15309446</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
       </c>
       <c r="T3">
         <v>0.04149349552</v>
@@ -23295,7 +22713,7 @@
     </row>
     <row r="4" spans="1:52">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>1.188878534</v>
@@ -23453,7 +22871,7 @@
     </row>
     <row r="5" spans="1:52">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>0.1619047619</v>
@@ -23479,9 +22897,6 @@
       <c r="I5">
         <v>0.8440514469</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
         <v>0.187745098</v>
       </c>
@@ -23497,18 +22912,6 @@
       <c r="O5">
         <v>5.567406143</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
       <c r="T5">
         <v>0.1274490258</v>
       </c>
@@ -23592,9 +22995,6 @@
       </c>
       <c r="AU5">
         <v>0.8796508957</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
       </c>
       <c r="AW5">
         <v>0.236564079</v>
@@ -23611,7 +23011,7 @@
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>1.424369215</v>
@@ -23769,7 +23169,7 @@
     </row>
     <row r="7" spans="1:52">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7">
         <v>1.181396248</v>
@@ -23927,7 +23327,7 @@
     </row>
     <row r="8" spans="1:52">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8">
         <v>1.211070874</v>
@@ -24085,7 +23485,7 @@
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9">
         <v>0.2746831027</v>
@@ -24243,7 +23643,7 @@
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <v>0.5535817382</v>
@@ -24286,18 +23686,6 @@
       </c>
       <c r="O10">
         <v>4.067951546</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
       </c>
       <c r="T10">
         <v>0.1143017001</v>
@@ -24401,7 +23789,7 @@
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <v>0.2602230483</v>
@@ -24444,18 +23832,6 @@
       </c>
       <c r="O11">
         <v>-19.43925234</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
       </c>
       <c r="T11">
         <v>-0.06407185629000001</v>
@@ -24559,7 +23935,7 @@
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12">
         <v>0.007172131148</v>
@@ -24602,18 +23978,6 @@
       </c>
       <c r="O12">
         <v>-6.0784</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
       </c>
       <c r="T12">
         <v>-0.1471627031</v>
@@ -24717,7 +24081,7 @@
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13">
         <v>0.4013377926</v>
@@ -24875,7 +24239,7 @@
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14">
         <v>0.4682926829</v>
@@ -25033,7 +24397,7 @@
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15">
         <v>0.1024022174</v>
@@ -25191,7 +24555,7 @@
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16">
         <v>1.198105437</v>
@@ -25349,7 +24713,7 @@
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17">
         <v>0.6893701909</v>
@@ -25507,7 +24871,7 @@
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18">
         <v>2.379844961</v>
@@ -25550,18 +24914,6 @@
       </c>
       <c r="O18">
         <v>3.788496008</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
       </c>
       <c r="T18">
         <v>0.04416696653</v>
@@ -25665,7 +25017,7 @@
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19">
         <v>0.4532967033</v>
@@ -25708,18 +25060,6 @@
       </c>
       <c r="O19">
         <v>0.4369114878</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
       </c>
       <c r="T19">
         <v>4.916666667</v>
@@ -25823,7 +25163,7 @@
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20">
         <v>0.9236641221</v>
@@ -25866,18 +25206,6 @@
       </c>
       <c r="O20">
         <v>-1.910569106</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
       </c>
       <c r="T20">
         <v>-0.2373535493</v>
@@ -25981,7 +25309,7 @@
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21">
         <v>0.4149739226</v>
@@ -26139,7 +25467,7 @@
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22">
         <v>0.4036281179</v>
@@ -26182,18 +25510,6 @@
       </c>
       <c r="O22">
         <v>6.308898152</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
       </c>
       <c r="T22">
         <v>0.2879582518</v>
@@ -26297,7 +25613,7 @@
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B23">
         <v>2.518456376</v>
@@ -26323,9 +25639,6 @@
       <c r="I23">
         <v>60.2020202</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
         <v>0.5294990724</v>
       </c>
@@ -26338,21 +25651,6 @@
       <c r="N23">
         <v>228.0808081</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
       <c r="T23">
         <v>-0.1578357438</v>
       </c>
@@ -26380,12 +25678,6 @@
       <c r="AB23">
         <v>-0.07851239669</v>
       </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
       <c r="AE23">
         <v>0.1703153989</v>
       </c>
@@ -26395,12 +25687,6 @@
       <c r="AG23">
         <v>0.7183673469</v>
       </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
       <c r="AJ23">
         <v>-61.73131313</v>
       </c>
@@ -26436,9 +25722,6 @@
       </c>
       <c r="AU23">
         <v>288.2828283</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
       </c>
       <c r="AW23">
         <v>92.72727273</v>
@@ -26455,7 +25738,7 @@
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24">
         <v>0.1984732824</v>
@@ -26475,9 +25758,6 @@
       <c r="H24">
         <v>0.001688814779</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
         <v>0.08264315709</v>
       </c>
@@ -26487,9 +25767,6 @@
       <c r="M24">
         <v>0.08095434231</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
       <c r="P24">
         <v>0.00103157517</v>
       </c>
@@ -26526,12 +25803,6 @@
       <c r="AB24">
         <v>0.01586898524</v>
       </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
       <c r="AE24">
         <v>-0.001325355058</v>
       </c>
@@ -26540,18 +25811,6 @@
       </c>
       <c r="AG24">
         <v>0.9983111852</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>0</v>
-      </c>
-      <c r="AY24">
-        <v>0</v>
       </c>
       <c r="AZ24">
         <v>1</v>
@@ -26559,7 +25818,7 @@
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25">
         <v>0.4050098932</v>
@@ -26717,7 +25976,7 @@
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26">
         <v>0.02272037243</v>
@@ -26875,7 +26134,7 @@
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27">
         <v>0.025919063</v>
@@ -27033,7 +26292,7 @@
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B28">
         <v>0.5496853226</v>
@@ -27191,7 +26450,7 @@
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29">
         <v>0.92266308</v>
@@ -27217,9 +26476,6 @@
       <c r="I29">
         <v>1.045710267</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
       <c r="K29">
         <v>0.2101071395</v>
       </c>
@@ -27235,18 +26491,6 @@
       <c r="O29">
         <v>1.538550859</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
       <c r="T29">
         <v>0.2767796883</v>
       </c>
@@ -27330,9 +26574,6 @@
       </c>
       <c r="AU29">
         <v>1.558368495</v>
-      </c>
-      <c r="AV29">
-        <v>0</v>
       </c>
       <c r="AW29">
         <v>1.416315049</v>
@@ -27349,7 +26590,7 @@
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B30">
         <v>1.354154728</v>
@@ -27507,7 +26748,7 @@
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B31">
         <v>0.3325183374</v>
@@ -27550,18 +26791,6 @@
       </c>
       <c r="O31">
         <v>2.471014493</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
       </c>
       <c r="T31">
         <v>1.140495868</v>
@@ -27665,7 +26894,7 @@
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ32">
         <v>0</v>
@@ -27673,7 +26902,7 @@
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33">
         <v>0.5048848569</v>
@@ -27831,7 +27060,7 @@
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B34">
         <v>0.002341920375</v>
@@ -27989,7 +27218,7 @@
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B35">
         <v>0.213592233</v>
@@ -28147,7 +27376,7 @@
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B36">
         <v>0.7890049139999999</v>
@@ -28305,7 +27534,7 @@
     </row>
     <row r="37" spans="1:52">
       <c r="A37" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37">
         <v>0.4279863481</v>
@@ -28463,7 +27692,7 @@
     </row>
     <row r="38" spans="1:52">
       <c r="A38" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B38">
         <v>0.01478669198</v>
@@ -28506,18 +27735,6 @@
       </c>
       <c r="O38">
         <v>56.97402597</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
       </c>
       <c r="T38">
         <v>0.08178438662</v>
@@ -28621,7 +27838,7 @@
     </row>
     <row r="39" spans="1:52">
       <c r="A39" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B39">
         <v>6.319327731</v>
@@ -28703,12 +27920,6 @@
       </c>
       <c r="AB39">
         <v>0.1503827105</v>
-      </c>
-      <c r="AC39">
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <v>0</v>
       </c>
       <c r="AE39">
         <v>0.7648854962</v>
@@ -28779,7 +27990,7 @@
     </row>
     <row r="40" spans="1:52">
       <c r="A40" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B40">
         <v>0.6570576541000001</v>
@@ -28937,7 +28148,7 @@
     </row>
     <row r="41" spans="1:52">
       <c r="A41" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B41">
         <v>0.3010508227</v>
@@ -29095,7 +28306,7 @@
     </row>
     <row r="42" spans="1:52">
       <c r="A42" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B42">
         <v>1.781512605</v>
@@ -29121,9 +28332,6 @@
       <c r="I42">
         <v>1.101851852</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
       <c r="K42">
         <v>0.2447023209</v>
       </c>
@@ -29139,18 +28347,6 @@
       <c r="O42">
         <v>-0.1062416999</v>
       </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
       <c r="T42">
         <v>-0.06359797297</v>
       </c>
@@ -29234,9 +28430,6 @@
       </c>
       <c r="AU42">
         <v>2.99382716</v>
-      </c>
-      <c r="AV42">
-        <v>0</v>
       </c>
       <c r="AW42">
         <v>1.922839506</v>
@@ -29253,7 +28446,7 @@
     </row>
     <row r="43" spans="1:52">
       <c r="A43" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B43">
         <v>0.2452970493</v>
@@ -29411,7 +28604,7 @@
     </row>
     <row r="44" spans="1:52">
       <c r="A44" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B44">
         <v>0.02710135069</v>
@@ -29569,7 +28762,7 @@
     </row>
     <row r="45" spans="1:52">
       <c r="A45" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B45">
         <v>0.06097160384</v>
@@ -29727,7 +28920,7 @@
     </row>
     <row r="46" spans="1:52">
       <c r="A46" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B46">
         <v>0.02753603467</v>
@@ -29885,7 +29078,7 @@
     </row>
     <row r="47" spans="1:52">
       <c r="A47" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B47">
         <v>0.1810213415</v>
@@ -30043,7 +29236,7 @@
     </row>
     <row r="48" spans="1:52">
       <c r="A48" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B48">
         <v>0.02870898096</v>
@@ -30201,7 +29394,7 @@
     </row>
     <row r="49" spans="1:52">
       <c r="A49" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B49">
         <v>0.2846531825</v>
@@ -30334,9 +29527,6 @@
       </c>
       <c r="AS49">
         <v>0.41742866</v>
-      </c>
-      <c r="AT49">
-        <v>0</v>
       </c>
       <c r="AU49">
         <v>1.011042184</v>
@@ -30359,7 +29549,7 @@
     </row>
     <row r="50" spans="1:52">
       <c r="A50" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B50">
         <v>0.06091685646</v>
@@ -30517,7 +29707,7 @@
     </row>
     <row r="51" spans="1:52">
       <c r="A51" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B51">
         <v>4.9167216</v>
@@ -30543,9 +29733,6 @@
       <c r="I51">
         <v>51.71590909</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
       <c r="K51">
         <v>0.6958180484000001</v>
       </c>
@@ -30656,9 +29843,6 @@
       </c>
       <c r="AU51">
         <v>269.4318182</v>
-      </c>
-      <c r="AV51">
-        <v>0</v>
       </c>
       <c r="AW51">
         <v>258.0113636</v>
@@ -30675,7 +29859,7 @@
     </row>
     <row r="52" spans="1:52">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B52">
         <v>0.02307692308</v>
@@ -30701,9 +29885,6 @@
       <c r="I52">
         <v>0.6004618938</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
       <c r="K52">
         <v>0.01410200994</v>
       </c>
@@ -30716,9 +29897,6 @@
       <c r="N52">
         <v>2.413394919</v>
       </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
       <c r="P52">
         <v>-0.7912144703</v>
       </c>
@@ -30758,12 +29936,6 @@
       <c r="AB52">
         <v>-0.04263897915</v>
       </c>
-      <c r="AC52">
-        <v>0</v>
-      </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
       <c r="AE52">
         <v>-0.002744759023</v>
       </c>
@@ -30773,12 +29945,6 @@
       <c r="AG52">
         <v>0.731661984</v>
       </c>
-      <c r="AH52">
-        <v>0</v>
-      </c>
-      <c r="AI52">
-        <v>0</v>
-      </c>
       <c r="AJ52">
         <v>-3.997690531</v>
       </c>
@@ -30812,14 +29978,8 @@
       <c r="AU52">
         <v>3.013856813</v>
       </c>
-      <c r="AV52">
-        <v>0</v>
-      </c>
       <c r="AW52">
         <v>-0.5866050808</v>
-      </c>
-      <c r="AX52">
-        <v>0</v>
       </c>
       <c r="AY52">
         <v>0.004679057705</v>
@@ -30830,7 +29990,7 @@
     </row>
     <row r="53" spans="1:52">
       <c r="A53" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B53">
         <v>0.003426964455</v>
@@ -30988,7 +30148,7 @@
     </row>
     <row r="54" spans="1:52">
       <c r="A54" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B54">
         <v>0.001409681694</v>
@@ -31146,7 +30306,7 @@
     </row>
     <row r="55" spans="1:52">
       <c r="A55" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B55">
         <v>0.01837546516</v>
@@ -31304,7 +30464,7 @@
     </row>
     <row r="56" spans="1:52">
       <c r="A56" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B56">
         <v>0.139959432</v>
@@ -31347,18 +30507,6 @@
       </c>
       <c r="O56">
         <v>5.723476298</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
       </c>
       <c r="T56">
         <v>0.8430066603</v>
@@ -31462,7 +30610,7 @@
     </row>
     <row r="57" spans="1:52">
       <c r="A57" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B57">
         <v>0.0147943762</v>
@@ -31620,7 +30768,7 @@
     </row>
     <row r="58" spans="1:52">
       <c r="A58" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B58">
         <v>0.02930178674</v>
@@ -31778,7 +30926,7 @@
     </row>
     <row r="59" spans="1:52">
       <c r="A59" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B59">
         <v>0.09966326518</v>
@@ -31936,7 +31084,7 @@
     </row>
     <row r="60" spans="1:52">
       <c r="A60" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B60">
         <v>0.0005466144273</v>
@@ -32094,7 +31242,7 @@
     </row>
     <row r="61" spans="1:52">
       <c r="A61" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B61">
         <v>0.03585421392</v>
@@ -32252,7 +31400,7 @@
     </row>
     <row r="62" spans="1:52">
       <c r="A62" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B62">
         <v>0.04374343108</v>
@@ -32410,7 +31558,7 @@
     </row>
     <row r="63" spans="1:52">
       <c r="A63" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B63">
         <v>0.3166608047</v>
@@ -32568,7 +31716,7 @@
     </row>
     <row r="64" spans="1:52">
       <c r="A64" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B64">
         <v>0.2248367197</v>
@@ -32650,12 +31798,6 @@
       </c>
       <c r="AB64">
         <v>0.3702271709</v>
-      </c>
-      <c r="AC64">
-        <v>0</v>
-      </c>
-      <c r="AD64">
-        <v>0</v>
       </c>
       <c r="AE64">
         <v>0.2290437823</v>
@@ -32726,7 +31868,7 @@
     </row>
     <row r="65" spans="1:52">
       <c r="A65" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B65">
         <v>0.8944859553</v>
@@ -32884,7 +32026,7 @@
     </row>
     <row r="66" spans="1:52">
       <c r="A66" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AZ66">
         <v>0</v>
@@ -32892,7 +32034,7 @@
     </row>
     <row r="67" spans="1:52">
       <c r="A67" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B67">
         <v>0.1653892643</v>
@@ -33050,7 +32192,7 @@
     </row>
     <row r="68" spans="1:52">
       <c r="A68" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B68">
         <v>0.009726222555999999</v>
@@ -33070,9 +32212,6 @@
       <c r="H68">
         <v>0.1202669755</v>
       </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
       <c r="K68">
         <v>0.08437807730000001</v>
       </c>
@@ -33082,9 +32221,6 @@
       <c r="M68">
         <v>-0.03588889818</v>
       </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
       <c r="P68">
         <v>-0.296413217</v>
       </c>
@@ -33121,12 +32257,6 @@
       <c r="AB68">
         <v>-0.01685672534</v>
       </c>
-      <c r="AC68">
-        <v>0</v>
-      </c>
-      <c r="AD68">
-        <v>0</v>
-      </c>
       <c r="AE68">
         <v>-0.0007421392486</v>
       </c>
@@ -33135,18 +32265,6 @@
       </c>
       <c r="AG68">
         <v>0.8695948147</v>
-      </c>
-      <c r="AH68">
-        <v>0</v>
-      </c>
-      <c r="AI68">
-        <v>0</v>
-      </c>
-      <c r="AR68">
-        <v>0</v>
-      </c>
-      <c r="AY68">
-        <v>0</v>
       </c>
       <c r="AZ68">
         <v>0</v>
@@ -33154,7 +32272,7 @@
     </row>
     <row r="69" spans="1:52">
       <c r="A69" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B69">
         <v>0.01734188782</v>
@@ -33312,7 +32430,7 @@
     </row>
     <row r="70" spans="1:52">
       <c r="A70" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B70">
         <v>0.4188217797</v>
@@ -33470,7 +32588,7 @@
     </row>
     <row r="71" spans="1:52">
       <c r="A71" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B71">
         <v>0.3765396793</v>
@@ -33628,7 +32746,7 @@
     </row>
     <row r="72" spans="1:52">
       <c r="A72" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B72">
         <v>0.2785340314</v>
@@ -33669,9 +32787,6 @@
       <c r="N72">
         <v>0.2975616861</v>
       </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
       <c r="P72">
         <v>0.3258526384</v>
       </c>
@@ -33711,12 +32826,6 @@
       <c r="AB72">
         <v>0.1606869394</v>
       </c>
-      <c r="AC72">
-        <v>0</v>
-      </c>
-      <c r="AD72">
-        <v>0</v>
-      </c>
       <c r="AE72">
         <v>0.1849139822</v>
       </c>
@@ -33725,12 +32834,6 @@
       </c>
       <c r="AG72">
         <v>0.7796919928</v>
-      </c>
-      <c r="AH72">
-        <v>0</v>
-      </c>
-      <c r="AI72">
-        <v>0</v>
       </c>
       <c r="AJ72">
         <v>0.05139999757</v>
@@ -33786,7 +32889,7 @@
     </row>
     <row r="73" spans="1:52">
       <c r="A73" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B73">
         <v>0.287251112</v>
@@ -33812,9 +32915,6 @@
       <c r="I73">
         <v>4.974883514</v>
       </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
       <c r="K73">
         <v>0.02803863384</v>
       </c>
@@ -33922,9 +33022,6 @@
       </c>
       <c r="AU73">
         <v>3.671703577</v>
-      </c>
-      <c r="AV73">
-        <v>0</v>
       </c>
       <c r="AW73">
         <v>2.430618723</v>
@@ -33953,6 +33050,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:52">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -34109,7 +33209,7 @@
     </row>
     <row r="2" spans="1:52">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>0.009673773538000001</v>
@@ -34267,7 +33367,7 @@
     </row>
     <row r="3" spans="1:52">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>0.3165591398</v>
@@ -34310,18 +33410,6 @@
       </c>
       <c r="O3">
         <v>-3.013555787</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
       </c>
       <c r="T3">
         <v>-0.4273618538</v>
@@ -34422,7 +33510,7 @@
     </row>
     <row r="4" spans="1:52">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>0.9194780395</v>
@@ -34580,7 +33668,7 @@
     </row>
     <row r="5" spans="1:52">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>0.342291372</v>
@@ -34606,9 +33694,6 @@
       <c r="I5">
         <v>1.152404238</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
         <v>0.1125193199</v>
       </c>
@@ -34624,18 +33709,6 @@
       <c r="O5">
         <v>8.417338709999999</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
       <c r="T5">
         <v>0.1344173442</v>
       </c>
@@ -34719,9 +33792,6 @@
       </c>
       <c r="AU5">
         <v>0.5933170334</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
       </c>
       <c r="AW5">
         <v>0.5118174409</v>
@@ -34738,7 +33808,7 @@
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>0.6124455161</v>
@@ -34896,7 +33966,7 @@
     </row>
     <row r="7" spans="1:52">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7">
         <v>1.383164348</v>
@@ -35054,7 +34124,7 @@
     </row>
     <row r="8" spans="1:52">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8">
         <v>1.496747487</v>
@@ -35212,7 +34282,7 @@
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9">
         <v>0.6702477527</v>
@@ -35370,7 +34440,7 @@
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <v>0.4643135422</v>
@@ -35413,18 +34483,6 @@
       </c>
       <c r="O10">
         <v>-7.201937407</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
       </c>
       <c r="T10">
         <v>-0.05738721403</v>
@@ -35528,7 +34586,7 @@
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <v>0.16796875</v>
@@ -35571,18 +34629,6 @@
       </c>
       <c r="O11">
         <v>60.92715232</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
       </c>
       <c r="T11">
         <v>0.02581196581</v>
@@ -35686,7 +34732,7 @@
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12">
         <v>0.4718477399</v>
@@ -35729,18 +34775,6 @@
       </c>
       <c r="O12">
         <v>-1.8781648</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
       </c>
       <c r="T12">
         <v>-1.291774034</v>
@@ -35844,7 +34878,7 @@
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13">
         <v>0.403962704</v>
@@ -36002,7 +35036,7 @@
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14">
         <v>0.7576791809</v>
@@ -36160,7 +35194,7 @@
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15">
         <v>0.4136017551</v>
@@ -36203,18 +35237,6 @@
       </c>
       <c r="O15">
         <v>-2.842654028</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
       </c>
       <c r="T15">
         <v>-0.1324877559</v>
@@ -36318,7 +35340,7 @@
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16">
         <v>0.9631147541</v>
@@ -36476,7 +35498,7 @@
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17">
         <v>0.7534846675</v>
@@ -36634,7 +35656,7 @@
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18">
         <v>1.30794702</v>
@@ -36677,18 +35699,6 @@
       </c>
       <c r="O18">
         <v>-7.166164659</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
       </c>
       <c r="T18">
         <v>-0.0296538891</v>
@@ -36792,7 +35802,7 @@
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19">
         <v>0.04982817869</v>
@@ -36835,18 +35845,6 @@
       </c>
       <c r="O19">
         <v>3.782894737</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
       </c>
       <c r="T19">
         <v>-0.2895238095</v>
@@ -36950,7 +35948,7 @@
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20">
         <v>0.6986506747</v>
@@ -36993,18 +35991,6 @@
       </c>
       <c r="O20">
         <v>1.629464286</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
       </c>
       <c r="T20">
         <v>0.1432454037</v>
@@ -37108,7 +36094,7 @@
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21">
         <v>0.3719018755</v>
@@ -37266,7 +36252,7 @@
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22">
         <v>0.7911111111</v>
@@ -37309,18 +36295,6 @@
       </c>
       <c r="O22">
         <v>4.518794988</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
       </c>
       <c r="T22">
         <v>0.4024061303</v>
@@ -37424,7 +36398,7 @@
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B23">
         <v>69.34285714000001</v>
@@ -37450,9 +36424,6 @@
       <c r="I23">
         <v>2.243589744</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
         <v>0.9072700297</v>
       </c>
@@ -37465,21 +36436,6 @@
       <c r="N23">
         <v>154.5512821</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
       <c r="T23">
         <v>-0.05864661654</v>
       </c>
@@ -37507,12 +36463,6 @@
       <c r="AB23">
         <v>-0.05353383459</v>
       </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
       <c r="AE23">
         <v>0.8965133531</v>
       </c>
@@ -37522,12 +36472,6 @@
       <c r="AG23">
         <v>0.9866468843</v>
       </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
       <c r="AJ23">
         <v>-10</v>
       </c>
@@ -37563,9 +36507,6 @@
       </c>
       <c r="AU23">
         <v>156.7948718</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
       </c>
       <c r="AW23">
         <v>154.9358974</v>
@@ -37582,7 +36523,7 @@
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24">
         <v>20.50612038</v>
@@ -37602,9 +36543,6 @@
       <c r="H24">
         <v>0.004285793257</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
         <v>0.09626147458000001</v>
       </c>
@@ -37614,9 +36552,6 @@
       <c r="M24">
         <v>0.09197568132</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
       <c r="P24">
         <v>4.611382898</v>
       </c>
@@ -37653,12 +36588,6 @@
       <c r="AB24">
         <v>0.005272422273</v>
       </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
       <c r="AE24">
         <v>0.08378584908</v>
       </c>
@@ -37667,18 +36596,6 @@
       </c>
       <c r="AG24">
         <v>0.9957142067</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>0</v>
-      </c>
-      <c r="AY24">
-        <v>0</v>
       </c>
       <c r="AZ24">
         <v>1</v>
@@ -37686,7 +36603,7 @@
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25">
         <v>0.5555566403</v>
@@ -37844,7 +36761,7 @@
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26">
         <v>0.0258422455</v>
@@ -38002,7 +36919,7 @@
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27">
         <v>0.01715518985</v>
@@ -38160,7 +37077,7 @@
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B28">
         <v>0.4947409918</v>
@@ -38318,7 +37235,7 @@
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29">
         <v>0.4206730769</v>
@@ -38344,9 +37261,6 @@
       <c r="I29">
         <v>0.6299212598</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
       <c r="K29">
         <v>0.1674052191</v>
       </c>
@@ -38362,18 +37276,6 @@
       <c r="O29">
         <v>32.51798561</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
       <c r="T29">
         <v>0.03436341162</v>
       </c>
@@ -38457,9 +37359,6 @@
       </c>
       <c r="AU29">
         <v>0.5148394912000001</v>
-      </c>
-      <c r="AV29">
-        <v>0</v>
       </c>
       <c r="AW29">
         <v>0.4491217444</v>
@@ -38476,7 +37375,7 @@
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B30">
         <v>0.8167028200000001</v>
@@ -38634,7 +37533,7 @@
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B31">
         <v>0.1856677524</v>
@@ -38677,18 +37576,6 @@
       </c>
       <c r="O31">
         <v>4.669421488</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
       </c>
       <c r="T31">
         <v>0.7978021977999999</v>
@@ -38792,7 +37679,7 @@
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ32">
         <v>0</v>
@@ -38800,7 +37687,7 @@
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33">
         <v>0.253361219</v>
@@ -38958,7 +37845,7 @@
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B34">
         <v>0.04312668464</v>
@@ -39047,9 +37934,6 @@
       <c r="AD34">
         <v>0.05757196496</v>
       </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
       <c r="AF34">
         <v>2.333333333</v>
       </c>
@@ -39100,9 +37984,6 @@
       </c>
       <c r="AV34">
         <v>0.1318051576</v>
-      </c>
-      <c r="AW34">
-        <v>0</v>
       </c>
       <c r="AX34">
         <v>0.441260745</v>
@@ -39116,7 +37997,7 @@
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B35">
         <v>0.1812297735</v>
@@ -39274,7 +38155,7 @@
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B36">
         <v>0.4863212102</v>
@@ -39432,7 +38313,7 @@
     </row>
     <row r="37" spans="1:52">
       <c r="A37" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37">
         <v>0.2007822686</v>
@@ -39590,7 +38471,7 @@
     </row>
     <row r="38" spans="1:52">
       <c r="A38" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B38">
         <v>0.01718200195</v>
@@ -39633,18 +38514,6 @@
       </c>
       <c r="O38">
         <v>-9.292083712</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
       </c>
       <c r="T38">
         <v>-0.3075846627</v>
@@ -39748,7 +38617,7 @@
     </row>
     <row r="39" spans="1:52">
       <c r="A39" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B39">
         <v>5.978723404</v>
@@ -39906,7 +38775,7 @@
     </row>
     <row r="40" spans="1:52">
       <c r="A40" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B40">
         <v>0.6008135593</v>
@@ -40064,7 +38933,7 @@
     </row>
     <row r="41" spans="1:52">
       <c r="A41" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B41">
         <v>0.3172690763</v>
@@ -40107,18 +38976,6 @@
       </c>
       <c r="O41">
         <v>3.241393195</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
       </c>
       <c r="T41">
         <v>0.7435628743</v>
@@ -40222,7 +39079,7 @@
     </row>
     <row r="42" spans="1:52">
       <c r="A42" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B42">
         <v>2.516717325</v>
@@ -40248,9 +39105,6 @@
       <c r="I42">
         <v>0.9762611275999999</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
       <c r="K42">
         <v>0.2430718647</v>
       </c>
@@ -40263,21 +39117,6 @@
       <c r="N42">
         <v>2.09495549</v>
       </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
       <c r="T42">
         <v>-0.07018366549000001</v>
       </c>
@@ -40305,12 +39144,6 @@
       <c r="AB42">
         <v>-0.03243454474</v>
       </c>
-      <c r="AC42">
-        <v>0</v>
-      </c>
-      <c r="AD42">
-        <v>0</v>
-      </c>
       <c r="AE42">
         <v>0.1862376703</v>
       </c>
@@ -40320,12 +39153,6 @@
       <c r="AG42">
         <v>0.6009863786</v>
       </c>
-      <c r="AH42">
-        <v>0</v>
-      </c>
-      <c r="AI42">
-        <v>0</v>
-      </c>
       <c r="AJ42">
         <v>-0.5329376855</v>
       </c>
@@ -40361,9 +39188,6 @@
       </c>
       <c r="AU42">
         <v>3.071216617</v>
-      </c>
-      <c r="AV42">
-        <v>0</v>
       </c>
       <c r="AW42">
         <v>2.353115727</v>
@@ -40380,7 +39204,7 @@
     </row>
     <row r="43" spans="1:52">
       <c r="A43" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B43">
         <v>0.8837623229</v>
@@ -40538,7 +39362,7 @@
     </row>
     <row r="44" spans="1:52">
       <c r="A44" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B44">
         <v>0.06041527308</v>
@@ -40696,7 +39520,7 @@
     </row>
     <row r="45" spans="1:52">
       <c r="A45" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B45">
         <v>0.03645271112</v>
@@ -40854,7 +39678,7 @@
     </row>
     <row r="46" spans="1:52">
       <c r="A46" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B46">
         <v>0.02313127255</v>
@@ -41012,7 +39836,7 @@
     </row>
     <row r="47" spans="1:52">
       <c r="A47" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B47">
         <v>0.09068493151</v>
@@ -41054,19 +39878,10 @@
         <v>-0.3584529506</v>
       </c>
       <c r="O47" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P47" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="T47" s="2">
         <v>142.3141195023148</v>
@@ -41120,10 +39935,10 @@
         <v>53.65151515046296</v>
       </c>
       <c r="AK47" s="2">
-        <v>-770.9037320023148</v>
+        <v>-769.9037320023148</v>
       </c>
       <c r="AL47" s="2">
-        <v>-1283.61025</v>
+        <v>-1282.61025</v>
       </c>
       <c r="AM47" s="2">
         <v>89.43440988425925</v>
@@ -41170,7 +39985,7 @@
     </row>
     <row r="48" spans="1:52">
       <c r="A48" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B48">
         <v>0.01257756042</v>
@@ -41328,7 +40143,7 @@
     </row>
     <row r="49" spans="1:52">
       <c r="A49" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B49">
         <v>1.035053823</v>
@@ -41461,9 +40276,6 @@
       </c>
       <c r="AS49">
         <v>0.5021560297</v>
-      </c>
-      <c r="AT49">
-        <v>0</v>
       </c>
       <c r="AU49">
         <v>1.062952592</v>
@@ -41486,7 +40298,7 @@
     </row>
     <row r="50" spans="1:52">
       <c r="A50" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B50">
         <v>0.1430241243</v>
@@ -41644,7 +40456,7 @@
     </row>
     <row r="51" spans="1:52">
       <c r="A51" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B51">
         <v>0.01280249805</v>
@@ -41664,9 +40476,6 @@
       <c r="H51">
         <v>0.9575422335</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
       <c r="K51">
         <v>0.01255793093</v>
       </c>
@@ -41715,12 +40524,6 @@
       <c r="AB51">
         <v>-1.292253521</v>
       </c>
-      <c r="AC51">
-        <v>0</v>
-      </c>
-      <c r="AD51">
-        <v>0</v>
-      </c>
       <c r="AE51">
         <v>0.01181043504</v>
       </c>
@@ -41735,15 +40538,6 @@
       </c>
       <c r="AI51">
         <v>0.9388548363</v>
-      </c>
-      <c r="AQ51">
-        <v>0</v>
-      </c>
-      <c r="AR51">
-        <v>0</v>
-      </c>
-      <c r="AY51">
-        <v>0</v>
       </c>
       <c r="AZ51">
         <v>1</v>
@@ -41751,7 +40545,7 @@
     </row>
     <row r="52" spans="1:52">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B52">
         <v>1.225531915</v>
@@ -41777,9 +40571,6 @@
       <c r="I52">
         <v>0.3069888961</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
       <c r="K52">
         <v>0.04326982176</v>
       </c>
@@ -41792,9 +40583,6 @@
       <c r="N52">
         <v>1.762246897</v>
       </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
       <c r="P52">
         <v>-2.324324324</v>
       </c>
@@ -41834,12 +40622,6 @@
       <c r="AB52">
         <v>-0.009918799466</v>
       </c>
-      <c r="AC52">
-        <v>0</v>
-      </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
       <c r="AE52">
         <v>0.001447790753</v>
       </c>
@@ -41849,12 +40631,6 @@
       <c r="AG52">
         <v>0.265765212</v>
       </c>
-      <c r="AH52">
-        <v>0</v>
-      </c>
-      <c r="AI52">
-        <v>0</v>
-      </c>
       <c r="AJ52">
         <v>0.3341606793</v>
       </c>
@@ -41888,14 +40664,8 @@
       <c r="AU52">
         <v>2.069235794</v>
       </c>
-      <c r="AV52">
-        <v>0</v>
-      </c>
       <c r="AW52">
         <v>0.0692357936</v>
-      </c>
-      <c r="AX52">
-        <v>0</v>
       </c>
       <c r="AY52">
         <v>0.0209110155</v>
@@ -41906,19 +40676,7 @@
     </row>
     <row r="53" spans="1:52">
       <c r="A53" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="F53">
         <v>0.5486563842</v>
@@ -42064,7 +40822,7 @@
     </row>
     <row r="54" spans="1:52">
       <c r="A54" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B54">
         <v>0.001581218841</v>
@@ -42222,7 +40980,7 @@
     </row>
     <row r="55" spans="1:52">
       <c r="A55" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B55">
         <v>0.0586103319</v>
@@ -42380,7 +41138,7 @@
     </row>
     <row r="56" spans="1:52">
       <c r="A56" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B56">
         <v>0.1559669161</v>
@@ -42423,18 +41181,6 @@
       </c>
       <c r="O56">
         <v>11.23809524</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
       </c>
       <c r="T56">
         <v>0.3601083032</v>
@@ -42538,7 +41284,7 @@
     </row>
     <row r="57" spans="1:52">
       <c r="A57" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B57">
         <v>0.02048550088</v>
@@ -42696,7 +41442,7 @@
     </row>
     <row r="58" spans="1:52">
       <c r="A58" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B58">
         <v>1.077790498</v>
@@ -42854,7 +41600,7 @@
     </row>
     <row r="59" spans="1:52">
       <c r="A59" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B59">
         <v>0.1007411438</v>
@@ -43012,7 +41758,7 @@
     </row>
     <row r="60" spans="1:52">
       <c r="A60" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B60">
         <v>0.002676399027</v>
@@ -43170,7 +41916,7 @@
     </row>
     <row r="61" spans="1:52">
       <c r="A61" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B61">
         <v>0.02627720734</v>
@@ -43328,7 +42074,7 @@
     </row>
     <row r="62" spans="1:52">
       <c r="A62" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B62">
         <v>0.009420982228</v>
@@ -43486,7 +42232,7 @@
     </row>
     <row r="63" spans="1:52">
       <c r="A63" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B63">
         <v>0.4028322611</v>
@@ -43644,7 +42390,7 @@
     </row>
     <row r="64" spans="1:52">
       <c r="A64" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B64">
         <v>0.096361477</v>
@@ -43802,7 +42548,7 @@
     </row>
     <row r="65" spans="1:52">
       <c r="A65" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B65">
         <v>1.603303279</v>
@@ -43960,7 +42706,7 @@
     </row>
     <row r="66" spans="1:52">
       <c r="A66" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AZ66">
         <v>0</v>
@@ -43968,7 +42714,7 @@
     </row>
     <row r="67" spans="1:52">
       <c r="A67" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B67">
         <v>0.1391204876</v>
@@ -44126,7 +42872,7 @@
     </row>
     <row r="68" spans="1:52">
       <c r="A68" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B68">
         <v>0.01387054838</v>
@@ -44146,9 +42892,6 @@
       <c r="H68">
         <v>0.08531245665999999</v>
       </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
       <c r="K68">
         <v>0.07660924119</v>
       </c>
@@ -44158,18 +42901,6 @@
       <c r="M68">
         <v>-0.008703215463</v>
       </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
       <c r="T68">
         <v>0.02413510146</v>
       </c>
@@ -44197,12 +42928,6 @@
       <c r="AB68">
         <v>0.04053592922</v>
       </c>
-      <c r="AC68">
-        <v>0</v>
-      </c>
-      <c r="AD68">
-        <v>0</v>
-      </c>
       <c r="AE68">
         <v>-0.0005954746177</v>
       </c>
@@ -44211,18 +42936,6 @@
       </c>
       <c r="AG68">
         <v>0.8872075341</v>
-      </c>
-      <c r="AH68">
-        <v>0</v>
-      </c>
-      <c r="AI68">
-        <v>0</v>
-      </c>
-      <c r="AR68">
-        <v>0</v>
-      </c>
-      <c r="AY68">
-        <v>0</v>
       </c>
       <c r="AZ68">
         <v>0</v>
@@ -44230,7 +42943,7 @@
     </row>
     <row r="69" spans="1:52">
       <c r="A69" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B69">
         <v>0.02285151764</v>
@@ -44388,7 +43101,7 @@
     </row>
     <row r="70" spans="1:52">
       <c r="A70" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B70">
         <v>1.853306613</v>
@@ -44546,7 +43259,7 @@
     </row>
     <row r="71" spans="1:52">
       <c r="A71" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B71">
         <v>0.2198018332</v>
@@ -44704,7 +43417,7 @@
     </row>
     <row r="72" spans="1:52">
       <c r="A72" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B72">
         <v>1.178594127</v>
@@ -44745,9 +43458,6 @@
       <c r="N72">
         <v>0.284057821</v>
       </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
       <c r="P72">
         <v>-0.1130062021</v>
       </c>
@@ -44787,12 +43497,6 @@
       <c r="AB72">
         <v>0.227655877</v>
       </c>
-      <c r="AC72">
-        <v>0</v>
-      </c>
-      <c r="AD72">
-        <v>0</v>
-      </c>
       <c r="AE72">
         <v>0.3666166316</v>
       </c>
@@ -44801,12 +43505,6 @@
       </c>
       <c r="AG72">
         <v>0.7393695587</v>
-      </c>
-      <c r="AH72">
-        <v>0</v>
-      </c>
-      <c r="AI72">
-        <v>0</v>
       </c>
       <c r="AJ72">
         <v>0.009889612153999999</v>
@@ -44862,7 +43560,7 @@
     </row>
     <row r="73" spans="1:52">
       <c r="A73" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B73">
         <v>0.1538572821</v>
@@ -44888,9 +43586,6 @@
       <c r="I73">
         <v>23.86477878</v>
       </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
       <c r="K73">
         <v>0.05299507045</v>
       </c>
@@ -44906,18 +43601,6 @@
       <c r="O73">
         <v>767.9851375</v>
       </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
       <c r="T73">
         <v>0.0002351439822</v>
       </c>
@@ -44945,12 +43628,6 @@
       <c r="AB73">
         <v>0.0002071673788</v>
       </c>
-      <c r="AC73">
-        <v>0</v>
-      </c>
-      <c r="AD73">
-        <v>0</v>
-      </c>
       <c r="AE73">
         <v>0.03748116825</v>
       </c>
@@ -44998,9 +43675,6 @@
       </c>
       <c r="AU73">
         <v>7.311337622</v>
-      </c>
-      <c r="AV73">
-        <v>0</v>
       </c>
       <c r="AW73">
         <v>5.170999363</v>
@@ -45029,6 +43703,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:52">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -45185,7 +43862,7 @@
     </row>
     <row r="2" spans="1:52">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>0.01655295622</v>
@@ -45343,7 +44020,7 @@
     </row>
     <row r="3" spans="1:52">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>1.793650794</v>
@@ -45386,18 +44063,6 @@
       </c>
       <c r="O3">
         <v>-2.858460727</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
       </c>
       <c r="T3">
         <v>-0.2281419122</v>
@@ -45498,7 +44163,7 @@
     </row>
     <row r="4" spans="1:52">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>0.7637595257999999</v>
@@ -45656,7 +44321,7 @@
     </row>
     <row r="5" spans="1:52">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>1.241706161</v>
@@ -45682,9 +44347,6 @@
       <c r="I5">
         <v>0.4147827796</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
         <v>0.1244477172</v>
       </c>
@@ -45700,18 +44362,6 @@
       <c r="O5">
         <v>-19.8420374</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
       <c r="T5">
         <v>-0.04492396814</v>
       </c>
@@ -45795,9 +44445,6 @@
       </c>
       <c r="AU5">
         <v>0.6644387655</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
       </c>
       <c r="AW5">
         <v>0.634951838</v>
@@ -45814,7 +44461,7 @@
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>1.773935838</v>
@@ -45972,7 +44619,7 @@
     </row>
     <row r="7" spans="1:52">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7">
         <v>1.115320334</v>
@@ -46130,7 +44777,7 @@
     </row>
     <row r="8" spans="1:52">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8">
         <v>1.223255814</v>
@@ -46173,18 +44820,6 @@
       </c>
       <c r="O8">
         <v>40.82901554</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
       </c>
       <c r="T8">
         <v>0.02453909727</v>
@@ -46288,7 +44923,7 @@
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9">
         <v>0.1094493542</v>
@@ -46446,7 +45081,7 @@
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <v>0.3187025668</v>
@@ -46489,18 +45124,6 @@
       </c>
       <c r="O10">
         <v>7.518240531</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
       </c>
       <c r="T10">
         <v>0.04029456034</v>
@@ -46604,7 +45227,7 @@
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <v>0.1657458564</v>
@@ -46647,18 +45270,6 @@
       </c>
       <c r="O11">
         <v>8.497807018</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
       </c>
       <c r="T11">
         <v>0.1628571429</v>
@@ -46762,7 +45373,7 @@
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12">
         <v>0.01460564752</v>
@@ -46805,18 +45416,6 @@
       </c>
       <c r="O12">
         <v>-1.015891033</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
       </c>
       <c r="T12">
         <v>-1.163036304</v>
@@ -46920,7 +45519,7 @@
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13">
         <v>0.1950880445</v>
@@ -46963,18 +45562,6 @@
       </c>
       <c r="O13">
         <v>-8.747869837</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
       </c>
       <c r="T13">
         <v>-0.1084532453</v>
@@ -47078,7 +45665,7 @@
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14">
         <v>0.5804195804</v>
@@ -47236,7 +45823,7 @@
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15">
         <v>0.3323813409</v>
@@ -47279,18 +45866,6 @@
       </c>
       <c r="O15">
         <v>-20.12208972</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
       </c>
       <c r="T15">
         <v>-0.01995693563</v>
@@ -47394,7 +45969,7 @@
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16">
         <v>0.7029045643</v>
@@ -47552,7 +46127,7 @@
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17">
         <v>0.7468581688</v>
@@ -47710,7 +46285,7 @@
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18">
         <v>1.866666667</v>
@@ -47753,18 +46328,6 @@
       </c>
       <c r="O18">
         <v>-2.989432703</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
       </c>
       <c r="T18">
         <v>-0.05401426962</v>
@@ -47868,7 +46431,7 @@
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19">
         <v>0.01635514019</v>
@@ -47912,18 +46475,6 @@
       <c r="O19">
         <v>-1.091127098</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
       <c r="T19">
         <v>0.7252173913</v>
       </c>
@@ -47950,12 +46501,6 @@
       </c>
       <c r="AB19">
         <v>-0.02608695652</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
       </c>
       <c r="AE19">
         <v>0.2908902692</v>
@@ -48026,7 +46571,7 @@
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20">
         <v>0.5907821229</v>
@@ -48069,18 +46614,6 @@
       </c>
       <c r="O20">
         <v>-2.099924869</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
       </c>
       <c r="T20">
         <v>-0.2341248901</v>
@@ -48184,7 +46717,7 @@
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21">
         <v>0.2075019952</v>
@@ -48342,7 +46875,7 @@
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22">
         <v>1.036777583</v>
@@ -48500,7 +47033,7 @@
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B23">
         <v>31.36363636</v>
@@ -48526,9 +47059,6 @@
       <c r="I23">
         <v>0.5</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
         <v>0.8516746411</v>
       </c>
@@ -48544,18 +47074,6 @@
       <c r="O23">
         <v>-0.0664893617</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
       <c r="T23">
         <v>-0.03695331695</v>
       </c>
@@ -48583,12 +47101,6 @@
       <c r="AB23">
         <v>-0.03095823096</v>
       </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
       <c r="AE23">
         <v>0.8301435407</v>
       </c>
@@ -48634,14 +47146,8 @@
       <c r="AS23">
         <v>0.8058181818</v>
       </c>
-      <c r="AT23">
-        <v>0</v>
-      </c>
       <c r="AU23">
         <v>16.18181818</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
       </c>
       <c r="AW23">
         <v>15.77272727</v>
@@ -48658,7 +47164,7 @@
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24">
         <v>738.6695074</v>
@@ -48678,9 +47184,6 @@
       <c r="H24">
         <v>0.0005246146901</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
         <v>0.3981603046</v>
       </c>
@@ -48690,9 +47193,6 @@
       <c r="M24">
         <v>0.3976356899</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
       <c r="P24">
         <v>0.3027085139</v>
       </c>
@@ -48729,12 +47229,6 @@
       <c r="AB24">
         <v>0.06070744618</v>
       </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
       <c r="AE24">
         <v>0.3869925871</v>
       </c>
@@ -48743,18 +47237,6 @@
       </c>
       <c r="AG24">
         <v>0.9994753853</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>0</v>
-      </c>
-      <c r="AY24">
-        <v>0</v>
       </c>
       <c r="AZ24">
         <v>1</v>
@@ -48762,7 +47244,7 @@
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25">
         <v>0.4215646595</v>
@@ -48920,7 +47402,7 @@
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26">
         <v>0.02412125242</v>
@@ -49078,7 +47560,7 @@
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27">
         <v>0.03308691784</v>
@@ -49236,7 +47718,7 @@
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B28">
         <v>0.5389368478</v>
@@ -49394,7 +47876,7 @@
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29">
         <v>0.5238853503000001</v>
@@ -49420,9 +47902,6 @@
       <c r="I29">
         <v>0.3417687075</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
       <c r="K29">
         <v>0.1423444976</v>
       </c>
@@ -49438,18 +47917,6 @@
       <c r="O29">
         <v>6.271234428</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
       <c r="T29">
         <v>0.1955703212</v>
       </c>
@@ -49533,9 +48000,6 @@
       </c>
       <c r="AU29">
         <v>0.3561904762</v>
-      </c>
-      <c r="AV29">
-        <v>0</v>
       </c>
       <c r="AW29">
         <v>0.2987755102</v>
@@ -49552,7 +48016,7 @@
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B30">
         <v>1.257966616</v>
@@ -49710,7 +48174,7 @@
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B31">
         <v>0.2386831276</v>
@@ -49753,18 +48217,6 @@
       </c>
       <c r="O31">
         <v>8.518518519000001</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
       </c>
       <c r="T31">
         <v>0.5538461538</v>
@@ -49868,7 +48320,7 @@
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ32">
         <v>0</v>
@@ -49876,7 +48328,7 @@
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33">
         <v>0.6458715596</v>
@@ -50034,7 +48486,7 @@
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B34">
         <v>0.153638814</v>
@@ -50192,7 +48644,7 @@
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B35">
         <v>0.6358148893</v>
@@ -50218,9 +48670,6 @@
       <c r="I35">
         <v>0.2911540715</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
       <c r="K35">
         <v>0.1677936389</v>
       </c>
@@ -50331,9 +48780,6 @@
       </c>
       <c r="AU35">
         <v>0.3925014646</v>
-      </c>
-      <c r="AV35">
-        <v>0</v>
       </c>
       <c r="AW35">
         <v>0.3356766257</v>
@@ -50350,7 +48796,7 @@
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B36">
         <v>0.7351330203000001</v>
@@ -50508,7 +48954,7 @@
     </row>
     <row r="37" spans="1:52">
       <c r="A37" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37">
         <v>0.1636879433</v>
@@ -50551,18 +48997,6 @@
       </c>
       <c r="O37">
         <v>-2.854917235</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
       </c>
       <c r="T37">
         <v>-0.5354535975</v>
@@ -50666,7 +49100,7 @@
     </row>
     <row r="38" spans="1:52">
       <c r="A38" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B38">
         <v>0.06270900242000001</v>
@@ -50824,7 +49258,7 @@
     </row>
     <row r="39" spans="1:52">
       <c r="A39" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B39">
         <v>4.013114754</v>
@@ -50867,18 +49301,6 @@
       </c>
       <c r="O39">
         <v>0.3043478261</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
       </c>
       <c r="T39">
         <v>0.1240804316</v>
@@ -50982,7 +49404,7 @@
     </row>
     <row r="40" spans="1:52">
       <c r="A40" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B40">
         <v>0.4783181951</v>
@@ -51140,7 +49562,7 @@
     </row>
     <row r="41" spans="1:52">
       <c r="A41" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B41">
         <v>0.564738292</v>
@@ -51183,18 +49605,6 @@
       </c>
       <c r="O41">
         <v>-9.167142042</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
       </c>
       <c r="T41">
         <v>-0.2504285714</v>
@@ -51298,7 +49708,7 @@
     </row>
     <row r="42" spans="1:52">
       <c r="A42" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B42">
         <v>4.731225296</v>
@@ -51324,9 +49734,6 @@
       <c r="I42">
         <v>0.7270114943</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
       <c r="K42">
         <v>0.304654754</v>
       </c>
@@ -51339,21 +49746,6 @@
       <c r="N42">
         <v>3.24137931</v>
       </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
       <c r="T42">
         <v>-0.126744186</v>
       </c>
@@ -51381,12 +49773,6 @@
       <c r="AB42">
         <v>-0.2502153316</v>
       </c>
-      <c r="AC42">
-        <v>0</v>
-      </c>
-      <c r="AD42">
-        <v>0</v>
-      </c>
       <c r="AE42">
         <v>0.2622986984</v>
       </c>
@@ -51396,12 +49782,6 @@
       <c r="AG42">
         <v>0.5122435473</v>
       </c>
-      <c r="AH42">
-        <v>0</v>
-      </c>
-      <c r="AI42">
-        <v>0</v>
-      </c>
       <c r="AJ42">
         <v>-0.8456896551999999</v>
       </c>
@@ -51437,9 +49817,6 @@
       </c>
       <c r="AU42">
         <v>3.968390805</v>
-      </c>
-      <c r="AV42">
-        <v>0</v>
       </c>
       <c r="AW42">
         <v>3.416666667</v>
@@ -51456,7 +49833,7 @@
     </row>
     <row r="43" spans="1:52">
       <c r="A43" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B43">
         <v>0.2181469187</v>
@@ -51614,7 +49991,7 @@
     </row>
     <row r="44" spans="1:52">
       <c r="A44" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B44">
         <v>0.06885675516</v>
@@ -51772,7 +50149,7 @@
     </row>
     <row r="45" spans="1:52">
       <c r="A45" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B45">
         <v>0.07009565226</v>
@@ -51930,7 +50307,7 @@
     </row>
     <row r="46" spans="1:52">
       <c r="A46" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B46">
         <v>0.113821262</v>
@@ -52088,7 +50465,7 @@
     </row>
     <row r="47" spans="1:52">
       <c r="A47" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B47">
         <v>0.08574635241</v>
@@ -52131,18 +50508,6 @@
       </c>
       <c r="O47">
         <v>7.827542905</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
       </c>
       <c r="T47">
         <v>0.2303760849</v>
@@ -52246,7 +50611,7 @@
     </row>
     <row r="48" spans="1:52">
       <c r="A48" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B48">
         <v>0.07813743898</v>
@@ -52404,7 +50769,7 @@
     </row>
     <row r="49" spans="1:52">
       <c r="A49" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B49">
         <v>1.932363781</v>
@@ -52537,9 +50902,6 @@
       </c>
       <c r="AS49">
         <v>0.4773096552</v>
-      </c>
-      <c r="AT49">
-        <v>0</v>
       </c>
       <c r="AU49">
         <v>3.266344828</v>
@@ -52562,7 +50924,7 @@
     </row>
     <row r="50" spans="1:52">
       <c r="A50" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B50">
         <v>0.5995964792</v>
@@ -52720,25 +51082,7 @@
     </row>
     <row r="51" spans="1:52">
       <c r="A51" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="T51">
         <v>0.9671309192</v>
@@ -52755,14 +51099,8 @@
       <c r="AB51">
         <v>1.60724234</v>
       </c>
-      <c r="AC51">
-        <v>0</v>
-      </c>
       <c r="AF51">
         <v>1.17704918</v>
-      </c>
-      <c r="AH51">
-        <v>0</v>
       </c>
       <c r="AZ51">
         <v>1</v>
@@ -52770,7 +51108,7 @@
     </row>
     <row r="52" spans="1:52">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B52">
         <v>0.06291390728</v>
@@ -52796,9 +51134,6 @@
       <c r="I52">
         <v>0.7072599532</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
       <c r="K52">
         <v>0.01954080197</v>
       </c>
@@ -52811,9 +51146,6 @@
       <c r="N52">
         <v>1.407494145</v>
       </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
       <c r="P52">
         <v>1.288186158</v>
       </c>
@@ -52853,12 +51185,6 @@
       <c r="AB52">
         <v>0.006211869107</v>
       </c>
-      <c r="AC52">
-        <v>0</v>
-      </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
       <c r="AE52">
         <v>-0.006124083011</v>
       </c>
@@ -52868,12 +51194,6 @@
       <c r="AG52">
         <v>0.3901668434</v>
       </c>
-      <c r="AH52">
-        <v>0</v>
-      </c>
-      <c r="AI52">
-        <v>0</v>
-      </c>
       <c r="AJ52">
         <v>2.758313817</v>
       </c>
@@ -52901,20 +51221,11 @@
       <c r="AS52">
         <v>1</v>
       </c>
-      <c r="AT52">
-        <v>0</v>
-      </c>
       <c r="AU52">
         <v>2.114754098</v>
       </c>
-      <c r="AV52">
-        <v>0</v>
-      </c>
       <c r="AW52">
         <v>-0.662763466</v>
-      </c>
-      <c r="AX52">
-        <v>0</v>
       </c>
       <c r="AY52">
         <v>0.009240224189</v>
@@ -52925,19 +51236,7 @@
     </row>
     <row r="53" spans="1:52">
       <c r="A53" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="F53">
         <v>0.8029222315</v>
@@ -53083,7 +51382,7 @@
     </row>
     <row r="54" spans="1:52">
       <c r="A54" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B54">
         <v>0.001999253026</v>
@@ -53241,7 +51540,7 @@
     </row>
     <row r="55" spans="1:52">
       <c r="A55" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B55">
         <v>0.1099033486</v>
@@ -53399,7 +51698,7 @@
     </row>
     <row r="56" spans="1:52">
       <c r="A56" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B56">
         <v>0.3777777778</v>
@@ -53442,18 +51741,6 @@
       </c>
       <c r="O56">
         <v>5.656614786</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
       </c>
       <c r="T56">
         <v>0.8041720991</v>
@@ -53557,7 +51844,7 @@
     </row>
     <row r="57" spans="1:52">
       <c r="A57" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B57">
         <v>0.04640130122</v>
@@ -53715,7 +52002,7 @@
     </row>
     <row r="58" spans="1:52">
       <c r="A58" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B58">
         <v>0.0447218996</v>
@@ -53873,7 +52160,7 @@
     </row>
     <row r="59" spans="1:52">
       <c r="A59" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B59">
         <v>0.1263676009</v>
@@ -54031,7 +52318,7 @@
     </row>
     <row r="60" spans="1:52">
       <c r="A60" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B60">
         <v>0.002950368451</v>
@@ -54189,7 +52476,7 @@
     </row>
     <row r="61" spans="1:52">
       <c r="A61" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B61">
         <v>0.06637897449999999</v>
@@ -54347,7 +52634,7 @@
     </row>
     <row r="62" spans="1:52">
       <c r="A62" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B62">
         <v>0.1525573361</v>
@@ -54505,7 +52792,7 @@
     </row>
     <row r="63" spans="1:52">
       <c r="A63" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B63">
         <v>0.3905926238</v>
@@ -54663,7 +52950,7 @@
     </row>
     <row r="64" spans="1:52">
       <c r="A64" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B64">
         <v>0.188662584</v>
@@ -54821,7 +53108,7 @@
     </row>
     <row r="65" spans="1:52">
       <c r="A65" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B65">
         <v>1.998700122</v>
@@ -54979,7 +53266,7 @@
     </row>
     <row r="66" spans="1:52">
       <c r="A66" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AZ66">
         <v>0</v>
@@ -54987,7 +53274,7 @@
     </row>
     <row r="67" spans="1:52">
       <c r="A67" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B67">
         <v>0.4982030896</v>
@@ -55145,7 +53432,7 @@
     </row>
     <row r="68" spans="1:52">
       <c r="A68" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B68">
         <v>0.008928252527</v>
@@ -55165,9 +53452,6 @@
       <c r="H68">
         <v>0.0687465168</v>
       </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
       <c r="K68">
         <v>0.06026874541</v>
       </c>
@@ -55177,9 +53461,6 @@
       <c r="M68">
         <v>-0.008477771388</v>
       </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
       <c r="P68">
         <v>0.03108117979</v>
       </c>
@@ -55216,12 +53497,6 @@
       <c r="AB68">
         <v>0.2403882922</v>
       </c>
-      <c r="AC68">
-        <v>0</v>
-      </c>
-      <c r="AD68">
-        <v>0</v>
-      </c>
       <c r="AE68">
         <v>-0.00153523928</v>
       </c>
@@ -55230,18 +53505,6 @@
       </c>
       <c r="AG68">
         <v>0.8945868175</v>
-      </c>
-      <c r="AH68">
-        <v>0</v>
-      </c>
-      <c r="AI68">
-        <v>0</v>
-      </c>
-      <c r="AR68">
-        <v>0</v>
-      </c>
-      <c r="AY68">
-        <v>0</v>
       </c>
       <c r="AZ68">
         <v>0</v>
@@ -55249,7 +53512,7 @@
     </row>
     <row r="69" spans="1:52">
       <c r="A69" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B69">
         <v>0.01909878147</v>
@@ -55407,7 +53670,7 @@
     </row>
     <row r="70" spans="1:52">
       <c r="A70" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B70">
         <v>1.714559846</v>
@@ -55565,7 +53828,7 @@
     </row>
     <row r="71" spans="1:52">
       <c r="A71" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B71">
         <v>0.2016464324</v>
@@ -55723,7 +53986,7 @@
     </row>
     <row r="72" spans="1:52">
       <c r="A72" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B72">
         <v>1.335426267</v>
@@ -55764,9 +54027,6 @@
       <c r="N72">
         <v>0.3735443283</v>
       </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
       <c r="P72">
         <v>0.2435769519</v>
       </c>
@@ -55806,12 +54066,6 @@
       <c r="AB72">
         <v>0.1958948182</v>
       </c>
-      <c r="AC72">
-        <v>0</v>
-      </c>
-      <c r="AD72">
-        <v>0</v>
-      </c>
       <c r="AE72">
         <v>0.4494217833</v>
       </c>
@@ -55820,12 +54074,6 @@
       </c>
       <c r="AG72">
         <v>0.7008767731</v>
-      </c>
-      <c r="AH72">
-        <v>0</v>
-      </c>
-      <c r="AI72">
-        <v>0</v>
       </c>
       <c r="AJ72">
         <v>0.1569433496</v>
@@ -55881,7 +54129,7 @@
     </row>
     <row r="73" spans="1:52">
       <c r="A73" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B73">
         <v>2.150462316</v>
@@ -55907,9 +54155,6 @@
       <c r="I73">
         <v>4.462807777</v>
       </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
       <c r="K73">
         <v>0.08623671761</v>
       </c>
@@ -56017,9 +54262,6 @@
       </c>
       <c r="AU73">
         <v>13.27508121</v>
-      </c>
-      <c r="AV73">
-        <v>0</v>
       </c>
       <c r="AW73">
         <v>11.32397251</v>
